--- a/regions/7/sastumroebi da restornebi/sastumroebi da restornebi.xlsx
+++ b/regions/7/sastumroebi da restornebi/sastumroebi da restornebi.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="16">
   <si>
     <t>_</t>
   </si>
@@ -162,7 +162,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -185,22 +185,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -234,10 +223,6 @@
     <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -249,7 +234,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -545,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:P1"/>
+      <selection sqref="A1:R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -557,27 +542,29 @@
     <col min="2" max="6" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="24.75" customHeight="1">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:18" ht="24.75" customHeight="1">
+      <c r="A1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-    </row>
-    <row r="2" spans="1:16" ht="11.25" customHeight="1">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+    </row>
+    <row r="2" spans="1:18" ht="11.25" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -593,55 +580,61 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:18">
       <c r="A3" s="3"/>
-      <c r="B3" s="21">
+      <c r="B3" s="19">
         <v>2006</v>
       </c>
-      <c r="C3" s="21">
+      <c r="C3" s="19">
         <v>2007</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D3" s="19">
         <v>2008</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="19">
         <v>2009</v>
       </c>
-      <c r="F3" s="21">
+      <c r="F3" s="19">
         <v>2010</v>
       </c>
-      <c r="G3" s="21">
+      <c r="G3" s="19">
         <v>2011</v>
       </c>
-      <c r="H3" s="21">
+      <c r="H3" s="19">
         <v>2012</v>
       </c>
-      <c r="I3" s="21">
+      <c r="I3" s="19">
         <v>2013</v>
       </c>
-      <c r="J3" s="22">
+      <c r="J3" s="20">
         <v>2014</v>
       </c>
-      <c r="K3" s="22">
+      <c r="K3" s="20">
         <v>2015</v>
       </c>
-      <c r="L3" s="22">
+      <c r="L3" s="20">
         <v>2016</v>
       </c>
-      <c r="M3" s="22">
+      <c r="M3" s="20">
         <v>2017</v>
       </c>
-      <c r="N3" s="22">
+      <c r="N3" s="20">
         <v>2018</v>
       </c>
-      <c r="O3" s="22">
+      <c r="O3" s="20">
         <v>2019</v>
       </c>
-      <c r="P3" s="22">
+      <c r="P3" s="20">
         <v>2020</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" ht="15.75">
+      <c r="Q3" s="20">
+        <v>2021</v>
+      </c>
+      <c r="R3" s="20">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="15.75">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
@@ -690,8 +683,14 @@
       <c r="P4" s="11">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" ht="15.75">
+      <c r="Q4" s="11">
+        <v>3.4</v>
+      </c>
+      <c r="R4" s="11">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="15.75">
       <c r="A5" s="8" t="s">
         <v>6</v>
       </c>
@@ -740,8 +739,14 @@
       <c r="P5" s="12">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" ht="15.75">
+      <c r="Q5" s="12">
+        <v>3.4</v>
+      </c>
+      <c r="R5" s="12">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="15.75">
       <c r="A6" s="8" t="s">
         <v>7</v>
       </c>
@@ -790,8 +795,14 @@
       <c r="P6" s="14">
         <v>76</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" ht="15.75">
+      <c r="Q6" s="14">
+        <v>105</v>
+      </c>
+      <c r="R6" s="14">
+        <v>110.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="15.75">
       <c r="A7" s="8" t="s">
         <v>8</v>
       </c>
@@ -840,8 +851,14 @@
       <c r="P7" s="14">
         <v>74</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" ht="15.75">
+      <c r="Q7" s="14">
+        <v>76</v>
+      </c>
+      <c r="R7" s="14">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="15.75">
       <c r="A8" s="8" t="s">
         <v>9</v>
       </c>
@@ -890,8 +907,14 @@
       <c r="P8" s="12">
         <v>321.2</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" ht="15.75">
+      <c r="Q8" s="12">
+        <v>606.5</v>
+      </c>
+      <c r="R8" s="12">
+        <v>877.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="15.75">
       <c r="A9" s="8" t="s">
         <v>10</v>
       </c>
@@ -940,8 +963,14 @@
       <c r="P9" s="12">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" ht="15.75">
+      <c r="Q9" s="12">
+        <v>2.1</v>
+      </c>
+      <c r="R9" s="12">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="15.75">
       <c r="A10" s="8" t="s">
         <v>11</v>
       </c>
@@ -990,8 +1019,14 @@
       <c r="P10" s="12">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" ht="15.75">
+      <c r="Q10" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="R10" s="12">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="15.75">
       <c r="A11" s="8" t="s">
         <v>12</v>
       </c>
@@ -1031,17 +1066,23 @@
       <c r="M11" s="11">
         <v>3.6</v>
       </c>
-      <c r="N11" s="17">
+      <c r="N11" s="11">
         <v>4.5</v>
       </c>
-      <c r="O11" s="17">
+      <c r="O11" s="11">
         <v>2.8</v>
       </c>
-      <c r="P11" s="17">
+      <c r="P11" s="11">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" ht="15.75">
+      <c r="Q11" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="R11" s="11">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="15.75">
       <c r="A12" s="8" t="s">
         <v>13</v>
       </c>
@@ -1081,21 +1122,27 @@
       <c r="M12" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="N12" s="18">
+      <c r="N12" s="12">
         <v>0.2</v>
       </c>
-      <c r="O12" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="P12" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="15.75">
+      <c r="O12" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="P12" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="R12" s="12">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="15.75">
       <c r="A13" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="17" t="s">
         <v>1</v>
       </c>
       <c r="C13" s="16">
@@ -1140,12 +1187,18 @@
       <c r="P13" s="12">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" ht="30">
+      <c r="Q13" s="12">
+        <v>2.4</v>
+      </c>
+      <c r="R13" s="12">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="30">
       <c r="A14" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="17" t="s">
         <v>1</v>
       </c>
       <c r="C14" s="10" t="s">
@@ -1190,8 +1243,14 @@
       <c r="P14" s="11" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="Q14" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="R14" s="11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="6"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1207,7 +1266,7 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:16" s="1" customFormat="1">
+    <row r="16" spans="1:18" s="1" customFormat="1">
       <c r="A16" s="7" t="s">
         <v>2</v>
       </c>
@@ -1260,11 +1319,11 @@
       <c r="N18" s="2"/>
     </row>
     <row r="22" spans="1:14">
-      <c r="A22" s="20"/>
+      <c r="A22" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A1:R1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/regions/7/sastumroebi da restornebi/sastumroebi da restornebi.xlsx
+++ b/regions/7/sastumroebi da restornebi/sastumroebi da restornebi.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="16">
   <si>
     <t>_</t>
   </si>
@@ -530,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R22"/>
+  <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:R1"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -542,7 +542,7 @@
     <col min="2" max="6" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="24.75" customHeight="1">
+    <row r="1" spans="1:19" ht="24.75" customHeight="1">
       <c r="A1" s="21" t="s">
         <v>4</v>
       </c>
@@ -564,7 +564,7 @@
       <c r="Q1" s="21"/>
       <c r="R1" s="21"/>
     </row>
-    <row r="2" spans="1:18" ht="11.25" customHeight="1">
+    <row r="2" spans="1:19" ht="11.25" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -580,7 +580,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:19">
       <c r="A3" s="3"/>
       <c r="B3" s="19">
         <v>2006</v>
@@ -633,8 +633,11 @@
       <c r="R3" s="20">
         <v>2022</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" ht="15.75">
+      <c r="S3" s="20">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="15.75">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
@@ -689,8 +692,11 @@
       <c r="R4" s="11">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" ht="15.75">
+      <c r="S4" s="11">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="15.75">
       <c r="A5" s="8" t="s">
         <v>6</v>
       </c>
@@ -745,8 +751,11 @@
       <c r="R5" s="12">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" ht="15.75">
+      <c r="S5" s="12">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="15.75">
       <c r="A6" s="8" t="s">
         <v>7</v>
       </c>
@@ -801,8 +810,11 @@
       <c r="R6" s="14">
         <v>110.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" ht="15.75">
+      <c r="S6" s="14">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="15.75">
       <c r="A7" s="8" t="s">
         <v>8</v>
       </c>
@@ -857,8 +869,11 @@
       <c r="R7" s="14">
         <v>66</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" ht="15.75">
+      <c r="S7" s="14">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="15.75">
       <c r="A8" s="8" t="s">
         <v>9</v>
       </c>
@@ -913,8 +928,11 @@
       <c r="R8" s="12">
         <v>877.3</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" ht="15.75">
+      <c r="S8" s="12">
+        <v>938.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="15.75">
       <c r="A9" s="8" t="s">
         <v>10</v>
       </c>
@@ -969,8 +987,11 @@
       <c r="R9" s="12">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" ht="15.75">
+      <c r="S9" s="12">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="15.75">
       <c r="A10" s="8" t="s">
         <v>11</v>
       </c>
@@ -1025,8 +1046,11 @@
       <c r="R10" s="12">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" ht="15.75">
+      <c r="S10" s="12">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="15.75">
       <c r="A11" s="8" t="s">
         <v>12</v>
       </c>
@@ -1081,8 +1105,11 @@
       <c r="R11" s="11">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" ht="15.75">
+      <c r="S11" s="11">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="15.75">
       <c r="A12" s="8" t="s">
         <v>13</v>
       </c>
@@ -1137,8 +1164,11 @@
       <c r="R12" s="12">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" ht="15.75">
+      <c r="S12" s="12">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="15.75">
       <c r="A13" s="8" t="s">
         <v>14</v>
       </c>
@@ -1193,8 +1223,11 @@
       <c r="R13" s="12">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" ht="30">
+      <c r="S13" s="12">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="30">
       <c r="A14" s="9" t="s">
         <v>15</v>
       </c>
@@ -1249,8 +1282,11 @@
       <c r="R14" s="11" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18">
+      <c r="S14" s="11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="6"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1266,7 +1302,7 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:18" s="1" customFormat="1">
+    <row r="16" spans="1:19" s="1" customFormat="1">
       <c r="A16" s="7" t="s">
         <v>2</v>
       </c>
